--- a/wp71/list.xlsx
+++ b/wp71/list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470A6B2E-52E8-441E-A850-60D936E679FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71263AD-D5BA-40F0-9047-9EE14C56E398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2789892F-D9E7-4234-AE5D-1F1DB8F4D9AB}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="220">
   <si>
     <t>nr</t>
   </si>
@@ -283,9 +283,6 @@
     <t>1.2.11</t>
   </si>
   <si>
-    <t>fun game, like scrabble, XBOX Live enchanced, works offline</t>
-  </si>
-  <si>
     <t>5F70B6A2-FFD8-4243-A20F-F4C323759535</t>
   </si>
   <si>
@@ -584,22 +581,123 @@
   </si>
   <si>
     <t>cdn-apps.nm.ext.dink.cf/wp71/</t>
+  </si>
+  <si>
+    <t>Nokia Drive</t>
+  </si>
+  <si>
+    <t>drive.xap</t>
+  </si>
+  <si>
+    <t>3.0.0.0</t>
+  </si>
+  <si>
+    <t>servers cut, app useless</t>
+  </si>
+  <si>
+    <t>miNotes</t>
+  </si>
+  <si>
+    <t>Aisis Design</t>
+  </si>
+  <si>
+    <t>minotes.xap</t>
+  </si>
+  <si>
+    <t>JabberTalk</t>
+  </si>
+  <si>
+    <t>offline notes app, works fine</t>
+  </si>
+  <si>
+    <t>Nicuta, Adrian-Sergiu</t>
+  </si>
+  <si>
+    <t>jabbertalk.xap</t>
+  </si>
+  <si>
+    <t>untested (not quite sure how to)</t>
+  </si>
+  <si>
+    <t>Mehdoh</t>
+  </si>
+  <si>
+    <t>My Own Ltd</t>
+  </si>
+  <si>
+    <t>mehdoh.xap</t>
+  </si>
+  <si>
+    <t>2.9.1379.0</t>
+  </si>
+  <si>
+    <t>cannot connect to twitter, dead</t>
+  </si>
+  <si>
+    <t>fun game, like scrabble, works offline</t>
+  </si>
+  <si>
+    <t>red means app doesn't work as a whole</t>
+  </si>
+  <si>
+    <t>untested on both 7 and 8.1</t>
+  </si>
+  <si>
+    <t>works on 8.1 but not yet on 7 (license bug)</t>
+  </si>
+  <si>
+    <t>works on 7</t>
+  </si>
+  <si>
+    <t>only offline functionality works</t>
+  </si>
+  <si>
+    <t>Resco Radio</t>
+  </si>
+  <si>
+    <t>Resco spol. s r.o.</t>
+  </si>
+  <si>
+    <t>rescoradio.xap</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>AmazingWeather Lite</t>
+  </si>
+  <si>
+    <t>ElizSoft</t>
+  </si>
+  <si>
+    <t>awlite.xap</t>
+  </si>
+  <si>
+    <t>cannot connect to servers, dead</t>
+  </si>
+  <si>
+    <t>ICQ</t>
+  </si>
+  <si>
+    <t>Mail.ru</t>
+  </si>
+  <si>
+    <t>icq.xap</t>
+  </si>
+  <si>
+    <t>1.5.1.583</t>
+  </si>
+  <si>
+    <t>most probably dead, cannot test it at all</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -619,16 +717,77 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -723,12 +882,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -743,25 +959,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="5"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="4" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
+    <cellStyle name="40% — akcent 1" xfId="6" builtinId="31"/>
+    <cellStyle name="Dane wejściowe" xfId="5" builtinId="20"/>
+    <cellStyle name="Dobry" xfId="2" builtinId="26"/>
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutralny" xfId="4" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Zły" xfId="3" builtinId="27"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
@@ -1022,8 +1275,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BE4BCE9-475A-4B34-8822-792DFA510368}" name="Tabela1" displayName="Tabela1" ref="B4:I37" headerRowDxfId="12" totalsRowDxfId="9" headerRowBorderDxfId="11" tableBorderDxfId="10" dataCellStyle="Normalny">
-  <autoFilter ref="B4:I37" xr:uid="{1BE4BCE9-475A-4B34-8822-792DFA510368}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BE4BCE9-475A-4B34-8822-792DFA510368}" name="Tabela1" displayName="Tabela1" ref="B4:I47" headerRowDxfId="12" totalsRowDxfId="9" headerRowBorderDxfId="11" tableBorderDxfId="10" dataCellStyle="Normalny">
+  <autoFilter ref="B4:I47" xr:uid="{1BE4BCE9-475A-4B34-8822-792DFA510368}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{FC017343-3372-4DF7-9901-C05BF66B1D2C}" name="nr" totalsRowLabel="Suma" dataDxfId="8" dataCellStyle="Normalny"/>
     <tableColumn id="2" xr3:uid="{AB7292C0-BFAB-412F-8931-28E67CCEBC37}" name="title" dataDxfId="7" dataCellStyle="Normalny"/>
@@ -1335,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5355D968-0F2E-4896-A668-FC43080E1608}">
-  <dimension ref="B2:I43"/>
+  <dimension ref="B2:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,30 +1608,30 @@
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E3" s="16" t="s">
-        <v>184</v>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E3" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1404,315 +1657,345 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="25">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="29"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="G12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="G14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="G15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>12</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="G16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="17" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1720,613 +2003,770 @@
       <c r="B17" s="7">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="G17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="I17" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>15</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>91</v>
+      <c r="I19" s="20" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>16</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>91</v>
+      <c r="I20" s="20" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>17</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="17" t="s">
         <v>104</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>18</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>19</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>20</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="17" t="s">
         <v>120</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>21</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="17" t="s">
         <v>125</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>22</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="5" t="s">
+      <c r="I26" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>23</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="5" t="s">
+      <c r="I27" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>24</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="17" t="s">
         <v>140</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>25</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="5" t="s">
+      <c r="I29" s="17" t="s">
         <v>145</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <v>26</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>27</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="I31" s="16" t="s">
         <v>154</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>28</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="5" t="s">
+      <c r="I32" s="17" t="s">
         <v>159</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <v>29</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="5" t="s">
+      <c r="I33" s="17" t="s">
         <v>164</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>30</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>166</v>
+      <c r="I34" s="17" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <v>31</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="E35" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="F35" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I35" s="18" t="s">
         <v>172</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
         <v>32</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="I36" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="10">
+        <v>33</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="12">
-        <v>33</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E37" s="10" t="s">
+      <c r="G37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="I37" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
+        <v>34</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="7">
+        <v>35</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="7">
+        <v>36</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F40" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
+      <c r="G40" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
+      <c r="B41" s="25">
+        <v>37</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
+      <c r="B42" s="7">
+        <v>38</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
+      <c r="B43" s="7">
+        <v>39</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="7">
+        <v>40</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="13"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="13"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="14"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="K9:N9"/>
     <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="http://cdn-apps.nm.ext.dink.cf/wp71/" xr:uid="{2405F1CD-4961-49FC-A1A4-68A40120B504}"/>
   </hyperlinks>

--- a/wp71/list.xlsx
+++ b/wp71/list.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <fileSharing readOnlyRecommended="1"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71263AD-D5BA-40F0-9047-9EE14C56E398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2789892F-D9E7-4234-AE5D-1F1DB8F4D9AB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="352">
   <si>
     <t>nr</t>
   </si>
@@ -58,9 +57,6 @@
     <t>1.0.0.1</t>
   </si>
   <si>
-    <t>WP 7.1</t>
-  </si>
-  <si>
     <t>Purple Cherry</t>
   </si>
   <si>
@@ -166,9 +162,6 @@
     <t>1.1.0</t>
   </si>
   <si>
-    <t>WP 7.0</t>
-  </si>
-  <si>
     <t>Windows Phone Restoriation Project - New Marketplace - Apps - Windows Phone 7</t>
   </si>
   <si>
@@ -643,9 +636,6 @@
     <t>untested on both 7 and 8.1</t>
   </si>
   <si>
-    <t>works on 8.1 but not yet on 7 (license bug)</t>
-  </si>
-  <si>
     <t>works on 7</t>
   </si>
   <si>
@@ -689,13 +679,418 @@
   </si>
   <si>
     <t>most probably dead, cannot test it at all</t>
+  </si>
+  <si>
+    <t>Viber</t>
+  </si>
+  <si>
+    <t>Viber Media SARL</t>
+  </si>
+  <si>
+    <t>viberwp7.xap</t>
+  </si>
+  <si>
+    <t>3.1.1.0</t>
+  </si>
+  <si>
+    <t>invalid phone number (fixable with a proxy)</t>
+  </si>
+  <si>
+    <t>works on 8.1 but not on 7 (license bug)</t>
+  </si>
+  <si>
+    <t>works on 8.1 but not 7 (8.1 conversion)</t>
+  </si>
+  <si>
+    <t>READU</t>
+  </si>
+  <si>
+    <t>XAPPEN</t>
+  </si>
+  <si>
+    <t>READU_v3.0.0.0.xap</t>
+  </si>
+  <si>
+    <t>OneDrive, Dropbox do not work, the rest works fine</t>
+  </si>
+  <si>
+    <t>Ringtone_Maker_v1.0.5.3.xap</t>
+  </si>
+  <si>
+    <t>WhatsApp_v2.8.2.0.xap</t>
+  </si>
+  <si>
+    <t>Wikipedia_v1.2.0.0.xap</t>
+  </si>
+  <si>
+    <t>WordPress_v1.6.0.0.xap</t>
+  </si>
+  <si>
+    <t>Ringtone Maker</t>
+  </si>
+  <si>
+    <t>1.0.5.3</t>
+  </si>
+  <si>
+    <t>works fully</t>
+  </si>
+  <si>
+    <t>doesn't work</t>
+  </si>
+  <si>
+    <t>2.8.2.0</t>
+  </si>
+  <si>
+    <t>WhatApp Inc. (Now Meta)</t>
+  </si>
+  <si>
+    <t>WhatsApp</t>
+  </si>
+  <si>
+    <t>Wikipedia</t>
+  </si>
+  <si>
+    <t>Wikipedia Foundation</t>
+  </si>
+  <si>
+    <t>WordPress</t>
+  </si>
+  <si>
+    <t>Automattic</t>
+  </si>
+  <si>
+    <t>UrMoney記帳家</t>
+  </si>
+  <si>
+    <t>Mobile 104 Corp.Inc</t>
+  </si>
+  <si>
+    <t>urmoney.xap</t>
+  </si>
+  <si>
+    <t>5F01B266-5BDB-4612-B950-DD3C65312BE9</t>
+  </si>
+  <si>
+    <t>短信传情春节版</t>
+  </si>
+  <si>
+    <t>OKR</t>
+  </si>
+  <si>
+    <t>okrchristmasfunny.xap</t>
+  </si>
+  <si>
+    <t>FBEE5C16-D722-42BE-9FE5-814A25A49ACC</t>
+  </si>
+  <si>
+    <t>列车时刻表</t>
+  </si>
+  <si>
+    <t>WPMind(HK)</t>
+  </si>
+  <si>
+    <t>roojune.xap</t>
+  </si>
+  <si>
+    <t>FAA55441-9CA5-4333-9762-384E53033C01</t>
+  </si>
+  <si>
+    <t>lezi</t>
+  </si>
+  <si>
+    <t>cnn-cnen.xap</t>
+  </si>
+  <si>
+    <t>F87CB37B-33DD-40CE-BCB9-A3E5E5229D96</t>
+  </si>
+  <si>
+    <t>CNN查单词版 (CNN En-CN Reader)</t>
+  </si>
+  <si>
+    <t>Dandelion</t>
+  </si>
+  <si>
+    <t>Zozo</t>
+  </si>
+  <si>
+    <t>dandelion.xap</t>
+  </si>
+  <si>
+    <t>F68ABAE8-264B-4BD4-86FA-B9EBA00C77C5</t>
+  </si>
+  <si>
+    <t>Mobi Table Tennis</t>
+  </si>
+  <si>
+    <t>mobitabletennis.xap</t>
+  </si>
+  <si>
+    <t>F2EB90AD-78AA-4D7E-ADD2-62783DC5B2EA</t>
+  </si>
+  <si>
+    <t>TaiwanWeather</t>
+  </si>
+  <si>
+    <t>demoshop</t>
+  </si>
+  <si>
+    <t>taiwanweather.xap</t>
+  </si>
+  <si>
+    <t>EBEA9538-2FA0-4221-8A35-EDB870075CC5</t>
+  </si>
+  <si>
+    <t>中文快速拨号芒果版</t>
+  </si>
+  <si>
+    <t>riqnw</t>
+  </si>
+  <si>
+    <t>qdialer.xap</t>
+  </si>
+  <si>
+    <t>EAD6B901-3189-44A2-A982-45FD55903925</t>
+  </si>
+  <si>
+    <t>Chinese Horoscope 2012</t>
+  </si>
+  <si>
+    <t>Yalla Apps</t>
+  </si>
+  <si>
+    <t>cnhoroscope12.xap</t>
+  </si>
+  <si>
+    <t>E6298404-FAE2-4E73-B78F-A262F00A9B28</t>
+  </si>
+  <si>
+    <t>MagicBalls</t>
+  </si>
+  <si>
+    <t>JSC Softkey</t>
+  </si>
+  <si>
+    <t>magicballs.xap</t>
+  </si>
+  <si>
+    <t>E22F2D9B-AB2C-4C03-979B-BA602F4A5A64</t>
+  </si>
+  <si>
+    <t>RapDialer</t>
+  </si>
+  <si>
+    <t>RapTek</t>
+  </si>
+  <si>
+    <t>rapdialer.xap</t>
+  </si>
+  <si>
+    <t>E09D032A-892D-47EB-85EC-4C3491C35C90</t>
+  </si>
+  <si>
+    <t>Flux (Google RSS News)</t>
+  </si>
+  <si>
+    <t>edonistart</t>
+  </si>
+  <si>
+    <t>flux.xap</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>D264B697-81E2-4DCD-AD2F-DC3941C08BD2</t>
+  </si>
+  <si>
+    <t>works fine, just an offline app</t>
+  </si>
+  <si>
+    <t>loads for a second then crashes</t>
+  </si>
+  <si>
+    <t>those are just dandelions</t>
+  </si>
+  <si>
+    <t>requires google account login, which doesn't work anymore</t>
+  </si>
+  <si>
+    <t>simple game works fine</t>
+  </si>
+  <si>
+    <t>simple tennis game</t>
+  </si>
+  <si>
+    <t>I do not speak this language sadly</t>
+  </si>
+  <si>
+    <t>Extra Settings</t>
+  </si>
+  <si>
+    <t>extrasettings-samsung.xap</t>
+  </si>
+  <si>
+    <t>C0960F2C-7D21-44E5-9645-E65ECA1E58DA</t>
+  </si>
+  <si>
+    <t>Type Chinese</t>
+  </si>
+  <si>
+    <t>FaceGroom Technologies Pvt Ltd.</t>
+  </si>
+  <si>
+    <t>typechinese.xap</t>
+  </si>
+  <si>
+    <t>C9DE2C35-2372-4B86-B092-0699610E0541</t>
+  </si>
+  <si>
+    <t>samsungdiagnostics1.xap</t>
+  </si>
+  <si>
+    <t>C4BC706B-F69F-40F7-B97A-FC09E4980E20</t>
+  </si>
+  <si>
+    <t>looks like it's the same as nr 19 just ported to 7.1</t>
+  </si>
+  <si>
+    <t>CommVault Monitor</t>
+  </si>
+  <si>
+    <t>COMMVAULT SYSTEMS, INC</t>
+  </si>
+  <si>
+    <t>commvault.xap</t>
+  </si>
+  <si>
+    <t>BD3EA98F-8743-4469-AFA5-D07532DDBEC5</t>
+  </si>
+  <si>
+    <t>Quick Tiles</t>
+  </si>
+  <si>
+    <t>Korhaan</t>
+  </si>
+  <si>
+    <t>quicktiles.xap</t>
+  </si>
+  <si>
+    <t>BAF50C17-31B7-4761-85D7-67C67D290461</t>
+  </si>
+  <si>
+    <t>Chinese Input Tool - 網際蒙恬筆</t>
+  </si>
+  <si>
+    <t>Penpower Inc.</t>
+  </si>
+  <si>
+    <t>cninputtool.xap</t>
+  </si>
+  <si>
+    <t>B9865704-0362-420B-BCA0-E1FD0CB2F397</t>
+  </si>
+  <si>
+    <t>TriviaTunes BOF</t>
+  </si>
+  <si>
+    <t>Chugulu Games</t>
+  </si>
+  <si>
+    <t>triviatunes.xap</t>
+  </si>
+  <si>
+    <t>1.4.7.8</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>B301A5AE-2FE8-4ED5-9383-52C2B22533DC</t>
+  </si>
+  <si>
+    <t>手机QQ</t>
+  </si>
+  <si>
+    <t>Tencent America LLC</t>
+  </si>
+  <si>
+    <t>qq1.xap</t>
+  </si>
+  <si>
+    <t>B092DEA6-3791-4CDF-820B-018C2C29F4A9</t>
+  </si>
+  <si>
+    <t>iScreen</t>
+  </si>
+  <si>
+    <t>CreativeAppWorks</t>
+  </si>
+  <si>
+    <t>iscreen.xap</t>
+  </si>
+  <si>
+    <t>B32F95E1-E8F1-4586-828F-672558A24CF7</t>
+  </si>
+  <si>
+    <t>ndrive.xap</t>
+  </si>
+  <si>
+    <t>1.1.0.1501</t>
+  </si>
+  <si>
+    <t>A82939AA-46F3-4CB8-89F2-99EB4833A876</t>
+  </si>
+  <si>
+    <t>百度地图</t>
+  </si>
+  <si>
+    <t>LeRuin</t>
+  </si>
+  <si>
+    <t>lrbaidumaps.xap</t>
+  </si>
+  <si>
+    <t>A3130A8B-DE01-40C5-A439-85F66FCFA512</t>
+  </si>
+  <si>
+    <t>Camera Effects</t>
+  </si>
+  <si>
+    <t>Mobilendo SL</t>
+  </si>
+  <si>
+    <t>cameraeffects-msl.xap</t>
+  </si>
+  <si>
+    <t>A311DB38-B2C3-42A1-A663-BD5D5F9FE675</t>
+  </si>
+  <si>
+    <t>106089F3-341D-4DB6-8FB1-91B40F1047AF</t>
+  </si>
+  <si>
+    <t>requires specific login url</t>
+  </si>
+  <si>
+    <t>ios 6 "launcher"</t>
+  </si>
+  <si>
+    <t>crashes (8.1)</t>
+  </si>
+  <si>
+    <t>customisable tiles</t>
+  </si>
+  <si>
+    <t>crashes, installs into settings, undeletable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,8 +1147,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -786,8 +1202,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -934,8 +1355,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -943,8 +1416,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -965,21 +1439,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -992,28 +1473,32 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="5"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="40% — akcent 1" xfId="6" builtinId="31"/>
     <cellStyle name="Dane wejściowe" xfId="5" builtinId="20"/>
     <cellStyle name="Dobry" xfId="2" builtinId="26"/>
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Neutralny" xfId="4" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Uwaga" xfId="7" builtinId="10"/>
     <cellStyle name="Zły" xfId="3" builtinId="27"/>
   </cellStyles>
   <dxfs count="13">
@@ -1275,17 +1760,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BE4BCE9-475A-4B34-8822-792DFA510368}" name="Tabela1" displayName="Tabela1" ref="B4:I47" headerRowDxfId="12" totalsRowDxfId="9" headerRowBorderDxfId="11" tableBorderDxfId="10" dataCellStyle="Normalny">
-  <autoFilter ref="B4:I47" xr:uid="{1BE4BCE9-475A-4B34-8822-792DFA510368}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B4:I83" headerRowDxfId="12" totalsRowDxfId="9" headerRowBorderDxfId="11" tableBorderDxfId="10" dataCellStyle="Normalny">
+  <autoFilter ref="B4:I83"/>
+  <sortState ref="B5:I61">
+    <sortCondition ref="B4:B61"/>
+  </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{FC017343-3372-4DF7-9901-C05BF66B1D2C}" name="nr" totalsRowLabel="Suma" dataDxfId="8" dataCellStyle="Normalny"/>
-    <tableColumn id="2" xr3:uid="{AB7292C0-BFAB-412F-8931-28E67CCEBC37}" name="title" dataDxfId="7" dataCellStyle="Normalny"/>
-    <tableColumn id="14" xr3:uid="{8A319874-1291-4F2B-ABD1-2C86D8710EDF}" name="by" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{075E9AF2-7876-4CEE-B064-9AC6DD44F27A}" name="file name" dataDxfId="5" dataCellStyle="Normalny"/>
-    <tableColumn id="3" xr3:uid="{2EF01E32-EB6C-4D8C-8DF3-5A943D1D4A80}" name="version" dataDxfId="4" dataCellStyle="Normalny"/>
-    <tableColumn id="4" xr3:uid="{485E05BB-DEFE-4CA4-A0FF-620E3ED40BEB}" name="for" dataDxfId="3" dataCellStyle="Normalny"/>
-    <tableColumn id="11" xr3:uid="{F41E8853-CDC2-40F6-8203-4AF36D4A0534}" name="status of the app" totalsRowFunction="count" dataDxfId="2" dataCellStyle="Normalny"/>
-    <tableColumn id="13" xr3:uid="{DB01D5DB-3843-4462-87B6-A3216D302199}" name="ms server id" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Normalny"/>
+    <tableColumn id="1" name="nr" totalsRowLabel="Suma" dataDxfId="8" dataCellStyle="Normalny"/>
+    <tableColumn id="2" name="title" dataDxfId="7" dataCellStyle="Normalny"/>
+    <tableColumn id="14" name="by" dataDxfId="6"/>
+    <tableColumn id="12" name="file name" dataDxfId="5" dataCellStyle="Normalny"/>
+    <tableColumn id="3" name="version" dataDxfId="4" dataCellStyle="Normalny"/>
+    <tableColumn id="4" name="for" dataDxfId="3" dataCellStyle="Normalny"/>
+    <tableColumn id="11" name="status of the app" totalsRowFunction="count" dataDxfId="2" dataCellStyle="Normalny"/>
+    <tableColumn id="13" name="ms server id" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Normalny"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1587,18 +2075,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5355D968-0F2E-4896-A668-FC43080E1608}">
-  <dimension ref="B2:N47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
@@ -1609,26 +2097,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="B2" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E3" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -1639,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
@@ -1654,1111 +2142,1968 @@
         <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="25">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
+      <c r="K5" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="I6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
+      <c r="K6" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="17" t="s">
+      <c r="I7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
+      <c r="K7" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
+      <c r="K8" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>5</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="F9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="17" t="s">
+      <c r="I9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="29"/>
+      <c r="K9" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>6</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="F10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="17" t="s">
+      <c r="I10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>41</v>
-      </c>
+      <c r="K10" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>7</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>48</v>
+      <c r="I11" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>8</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="I12" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>9</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="F13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>10</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="17" t="s">
+      <c r="F14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="G14" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>58</v>
+      <c r="I14" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>11</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>74</v>
+      <c r="I15" s="14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>12</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="F16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="I16" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>13</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="F17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="G17" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="I17" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>14</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="F18" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="G18" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="I18" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>15</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="20" t="s">
+      <c r="G19" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>90</v>
+      <c r="I19" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>16</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>90</v>
+      <c r="I20" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>17</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="E21" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="G21" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H21" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="I21" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>18</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="F22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="I22" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>19</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="F23" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="G23" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="I23" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>20</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="F24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H24" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="I24" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>21</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="F25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H25" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="I25" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>22</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="F26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="I26" s="14" t="s">
         <v>128</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>23</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="F27" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H27" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="I27" s="14" t="s">
         <v>133</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>24</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="F28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H28" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="I28" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>25</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="F29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="I29" s="14" t="s">
         <v>143</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <v>26</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="F30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="I30" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>27</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="16" t="s">
+      <c r="G31" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>152</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>28</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="F32" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H32" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="I32" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <v>29</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="F33" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H33" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="I33" s="14" t="s">
         <v>162</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>30</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="E34" s="17" t="s">
+      <c r="D34" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="I34" s="17" t="s">
+      <c r="G34" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H34" s="14" t="s">
         <v>165</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <v>31</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="F35" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="G35" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I35" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
         <v>32</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I36" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="10">
         <v>33</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="F37" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="H37" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="I37" s="15" t="s">
         <v>179</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
         <v>34</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="19" t="s">
+      <c r="G38" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H38" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="F38" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="I38" s="19" t="s">
-        <v>90</v>
+      <c r="I38" s="16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
         <v>35</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D39" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="E39" s="20" t="s">
+      <c r="F39" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="H39" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="F39" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="I39" s="20" t="s">
-        <v>90</v>
+      <c r="I39" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
         <v>36</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="E40" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="H40" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="I40" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="18">
+        <v>37</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="F40" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="20" t="s">
+      <c r="D41" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="I40" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="25">
-        <v>37</v>
-      </c>
-      <c r="C41" s="15" t="s">
+      <c r="E41" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="F41" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="G41" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="F41" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>90</v>
+      <c r="I41" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
         <v>38</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="H42" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="D42" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>90</v>
+      <c r="I42" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
         <v>39</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="H43" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>90</v>
+      <c r="I43" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
         <v>40</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="F44" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="G44" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="H44" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="I44" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="10">
+        <v>41</v>
+      </c>
+      <c r="C45" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="D45" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="G44" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="30" t="s">
+      <c r="E45" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="I44" s="30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="13"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
+      <c r="F45" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="I45" s="31" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="13"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+      <c r="B46" s="7">
+        <v>42</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="I46" s="32" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="14"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
+      <c r="B47" s="7">
+        <v>43</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="H47" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="I47" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="7">
+        <v>44</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="18">
+        <v>45</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="I49" s="34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="7">
+        <v>46</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I50" s="35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="7">
+        <v>47</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="7">
+        <v>48</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="10">
+        <v>49</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="7">
+        <v>50</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="7">
+        <v>51</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="7">
+        <v>52</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="18">
+        <v>53</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="7">
+        <v>54</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="7">
+        <v>55</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="7">
+        <v>56</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="10">
+        <v>57</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="7">
+        <v>58</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="7">
+        <v>59</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="7">
+        <v>60</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="18">
+        <v>61</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="7">
+        <v>62</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="7">
+        <v>63</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="7">
+        <v>64</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="10">
+        <v>65</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="7">
+        <v>66</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="7">
+        <v>67</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="7">
+        <v>68</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="18">
+        <v>69</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="7">
+        <v>70</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="7">
+        <v>71</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="7">
+        <v>72</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="10">
+        <v>73</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="7">
+        <v>74</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="7">
+        <v>75</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="7">
+        <v>76</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="18">
+        <v>77</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="7">
+        <v>78</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="7">
+        <v>79</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="K10:N10"/>
     <mergeCell ref="K9:N9"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="K5:N5"/>
@@ -2768,7 +4113,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="http://cdn-apps.nm.ext.dink.cf/wp71/" xr:uid="{2405F1CD-4961-49FC-A1A4-68A40120B504}"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://cdn-apps.nm.ext.dink.cf/wp71/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/wp71/list.xlsx
+++ b/wp71/list.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="391">
   <si>
     <t>nr</t>
   </si>
@@ -1084,6 +1084,123 @@
   </si>
   <si>
     <t>crashes, installs into settings, undeletable</t>
+  </si>
+  <si>
+    <t>ColorVisionTest</t>
+  </si>
+  <si>
+    <t>Biyee SciTech, Inc.</t>
+  </si>
+  <si>
+    <t>colorvisiontest.xap</t>
+  </si>
+  <si>
+    <t>WizTiles</t>
+  </si>
+  <si>
+    <t>wiztiles.xap</t>
+  </si>
+  <si>
+    <t>37622D24-332B-4BCC-98E0-B4EDB63153F1</t>
+  </si>
+  <si>
+    <t>KiddieApps - Cartoon animals</t>
+  </si>
+  <si>
+    <t>CandelaCreations</t>
+  </si>
+  <si>
+    <t>kiddieapps.xap</t>
+  </si>
+  <si>
+    <t>8038A705-AC32-4CFB-A556-429BC5089E56</t>
+  </si>
+  <si>
+    <t>Wasserwaage</t>
+  </si>
+  <si>
+    <t>Pocketkai</t>
+  </si>
+  <si>
+    <t>wasserwaage.xap</t>
+  </si>
+  <si>
+    <t>835FF1FC-CA40-4BB9-BD96-ABC7DAFACCD4</t>
+  </si>
+  <si>
+    <t>FotoEditor</t>
+  </si>
+  <si>
+    <t>Moobila</t>
+  </si>
+  <si>
+    <t>fotoeditor.xap</t>
+  </si>
+  <si>
+    <t>465C44E4-E9CF-48B9-91DD-8BE46CB70920</t>
+  </si>
+  <si>
+    <t>TV Go!</t>
+  </si>
+  <si>
+    <t>WalkGame Co. LTD.</t>
+  </si>
+  <si>
+    <t>tvgo.xap</t>
+  </si>
+  <si>
+    <t>094A0FEB-622E-40DF-8C37-64D6844C7EC6</t>
+  </si>
+  <si>
+    <t>Private Photo</t>
+  </si>
+  <si>
+    <t>Blue Screen Team</t>
+  </si>
+  <si>
+    <t>privatephoto.xap</t>
+  </si>
+  <si>
+    <t>64FBEA28-D416-49A6-BC57-AD3F88ABA051</t>
+  </si>
+  <si>
+    <t>GPS SMS Sender</t>
+  </si>
+  <si>
+    <t>sha4ky</t>
+  </si>
+  <si>
+    <t>gpssms.xap</t>
+  </si>
+  <si>
+    <t>27E4D10A-5F3C-4E92-8961-D6848C4008AF</t>
+  </si>
+  <si>
+    <t>lomolizer</t>
+  </si>
+  <si>
+    <t>lomolizer.xap</t>
+  </si>
+  <si>
+    <t>Lam Woon Cherk</t>
+  </si>
+  <si>
+    <t>Extras for "...i'm a WP7"</t>
+  </si>
+  <si>
+    <t>Liquid Daffodil</t>
+  </si>
+  <si>
+    <t>extrasforiaw7.xap</t>
+  </si>
+  <si>
+    <t>3.8.0.0</t>
+  </si>
+  <si>
+    <t>8C0E8AFE-5127-43A5-B01F-7DC5D367C5A8</t>
+  </si>
+  <si>
+    <t>8D4E3945-D4E7-4CDC-8749-88D20B33BB32</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1407,6 +1524,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1418,37 +1559,32 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1473,23 +1609,31 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="4" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% — akcent 1" xfId="6" builtinId="31"/>
@@ -1528,12 +1672,8 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -1547,9 +1687,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1644,8 +1782,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1671,8 +1813,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1682,6 +1823,40 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1695,34 +1870,9 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1760,20 +1910,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B4:I83" headerRowDxfId="12" totalsRowDxfId="9" headerRowBorderDxfId="11" tableBorderDxfId="10" dataCellStyle="Normalny">
-  <autoFilter ref="B4:I83"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B4:I84" headerRowDxfId="1" totalsRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11" dataCellStyle="Normalny">
+  <autoFilter ref="B4:I84"/>
   <sortState ref="B5:I61">
     <sortCondition ref="B4:B61"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="nr" totalsRowLabel="Suma" dataDxfId="8" dataCellStyle="Normalny"/>
-    <tableColumn id="2" name="title" dataDxfId="7" dataCellStyle="Normalny"/>
-    <tableColumn id="14" name="by" dataDxfId="6"/>
-    <tableColumn id="12" name="file name" dataDxfId="5" dataCellStyle="Normalny"/>
-    <tableColumn id="3" name="version" dataDxfId="4" dataCellStyle="Normalny"/>
-    <tableColumn id="4" name="for" dataDxfId="3" dataCellStyle="Normalny"/>
-    <tableColumn id="11" name="status of the app" totalsRowFunction="count" dataDxfId="2" dataCellStyle="Normalny"/>
-    <tableColumn id="13" name="ms server id" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Normalny"/>
+    <tableColumn id="1" name="nr" totalsRowLabel="Suma" dataDxfId="9" dataCellStyle="Normalny"/>
+    <tableColumn id="2" name="title" dataDxfId="8" dataCellStyle="Normalny"/>
+    <tableColumn id="14" name="by" dataDxfId="7"/>
+    <tableColumn id="12" name="file name" dataDxfId="6" dataCellStyle="Normalny"/>
+    <tableColumn id="3" name="version" dataDxfId="5" dataCellStyle="Normalny"/>
+    <tableColumn id="4" name="for" dataDxfId="4" dataCellStyle="Normalny"/>
+    <tableColumn id="11" name="status of the app" totalsRowFunction="count" dataDxfId="3" dataCellStyle="Normalny"/>
+    <tableColumn id="13" name="ms server id" dataDxfId="2" totalsRowDxfId="12" dataCellStyle="Normalny"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2076,10 +2226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N83"/>
+  <dimension ref="B2:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2097,19 +2247,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="5" t="s">
         <v>181</v>
       </c>
       <c r="H3" t="s">
@@ -2120,7 +2270,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2138,1968 +2288,2128 @@
       <c r="G4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="18">
+      <c r="B5" s="27">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+      <c r="B6" s="29">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="H6" s="13" t="s">
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+      <c r="B7" s="29">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="F7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
+      <c r="B8" s="29">
         <v>4</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H8" s="14" t="s">
+      <c r="G8" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
+      <c r="B9" s="29">
         <v>5</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H9" s="14" t="s">
+      <c r="F9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="17"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
+      <c r="B10" s="29">
         <v>6</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H10" s="14" t="s">
+      <c r="G10" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="30"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="14"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
+      <c r="B11" s="29">
         <v>7</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+      <c r="B12" s="29">
         <v>8</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H12" s="14" t="s">
+      <c r="F12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="31" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
+      <c r="B13" s="29">
         <v>9</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H13" s="14" t="s">
+      <c r="G13" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="31" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
+      <c r="B14" s="29">
         <v>10</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H14" s="14" t="s">
+      <c r="G14" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="31" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
+      <c r="B15" s="29">
         <v>11</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H15" s="14" t="s">
+      <c r="F15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="31" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
+      <c r="B16" s="29">
         <v>12</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H16" s="14" t="s">
+      <c r="F16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="31" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
+      <c r="B17" s="29">
         <v>13</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H17" s="14" t="s">
+      <c r="G17" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="31" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
+      <c r="B18" s="29">
         <v>14</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="H18" s="12" t="s">
+      <c r="G18" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="7">
+      <c r="B19" s="29">
         <v>15</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="H19" s="17" t="s">
+      <c r="G19" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="33" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="7">
+      <c r="B20" s="29">
         <v>16</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="H20" s="17" t="s">
+      <c r="G20" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="33" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="7">
+      <c r="B21" s="29">
         <v>17</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H21" s="14" t="s">
+      <c r="G21" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="31" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
+      <c r="B22" s="29">
         <v>18</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="H22" s="12" t="s">
+      <c r="G22" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="28" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="7">
+      <c r="B23" s="29">
         <v>19</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
+      <c r="B24" s="29">
         <v>20</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H24" s="14" t="s">
+      <c r="F24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="7">
-        <v>21</v>
-      </c>
-      <c r="C25" s="14" t="s">
+      <c r="B25" s="29">
+        <v>21</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H25" s="14" t="s">
+      <c r="F25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="31" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="7">
+      <c r="B26" s="29">
         <v>22</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H26" s="14" t="s">
+      <c r="F26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="31" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="7">
+      <c r="B27" s="29">
         <v>23</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H27" s="14" t="s">
+      <c r="F27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="31" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="7">
+      <c r="B28" s="29">
         <v>24</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H28" s="14" t="s">
+      <c r="F28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="31" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="7">
+      <c r="B29" s="29">
         <v>25</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H29" s="14" t="s">
+      <c r="F29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="31" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="7">
+      <c r="B30" s="29">
         <v>26</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="13" t="s">
+      <c r="F30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="30" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="7">
+      <c r="B31" s="29">
         <v>27</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G31" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="H31" s="13" t="s">
+      <c r="G31" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="30" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="7">
+      <c r="B32" s="29">
         <v>28</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H32" s="14" t="s">
+      <c r="F32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H32" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="31" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="7">
+      <c r="B33" s="29">
         <v>29</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F33" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H33" s="14" t="s">
+      <c r="F33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H33" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="31" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="7">
+      <c r="B34" s="29">
         <v>30</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H34" s="14" t="s">
+      <c r="G34" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="31" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="7">
+      <c r="B35" s="29">
         <v>31</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="I35" s="31" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="7">
+      <c r="B36" s="29">
         <v>32</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="H36" s="12" t="s">
+      <c r="F36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="28" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="10">
+      <c r="B37" s="29">
         <v>33</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="H37" s="15" t="s">
+      <c r="F37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H37" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="I37" s="15" t="s">
+      <c r="I37" s="31" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="7">
+      <c r="B38" s="29">
         <v>34</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G38" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="H38" s="16" t="s">
+      <c r="G38" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="I38" s="16" t="s">
+      <c r="I38" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="7">
+      <c r="B39" s="29">
         <v>35</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G39" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="H39" s="17" t="s">
+      <c r="H39" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="I39" s="33" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="7">
+      <c r="B40" s="29">
         <v>36</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F40" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="H40" s="17" t="s">
+      <c r="F40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="I40" s="17" t="s">
+      <c r="I40" s="33" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="18">
+      <c r="B41" s="27">
         <v>37</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G41" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="H41" s="12" t="s">
+      <c r="G41" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="I41" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="7">
+      <c r="B42" s="29">
         <v>38</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F42" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" s="12" t="s">
+      <c r="F42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="I42" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="7">
+      <c r="B43" s="29">
         <v>39</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="H43" s="12" t="s">
+      <c r="F43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="7">
+      <c r="B44" s="29">
         <v>40</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G44" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="H44" s="19" t="s">
+      <c r="G44" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="I44" s="19" t="s">
+      <c r="I44" s="30" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="10">
+      <c r="B45" s="29">
         <v>41</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="E45" s="37" t="s">
+      <c r="E45" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="F45" s="37" t="s">
+      <c r="F45" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="G45" s="37" t="s">
-        <v>325</v>
-      </c>
-      <c r="H45" s="37" t="s">
+      <c r="G45" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H45" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="I45" s="31" t="s">
+      <c r="I45" s="35" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="7">
+      <c r="B46" s="29">
         <v>42</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="G46" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="H46" s="17" t="s">
+      <c r="G46" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H46" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="I46" s="32" t="s">
+      <c r="I46" s="33" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="7">
+      <c r="B47" s="29">
         <v>43</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="E47" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="F47" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="G47" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="H47" s="33" t="s">
+      <c r="G47" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H47" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="I47" s="32" t="s">
+      <c r="I47" s="33" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="7">
+      <c r="B48" s="29">
         <v>44</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="G48" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="H48" s="12" t="s">
+      <c r="G48" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H48" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="I48" s="34" t="s">
+      <c r="I48" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="18">
+      <c r="B49" s="27">
         <v>45</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="H49" s="12" t="s">
+      <c r="G49" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="I49" s="34" t="s">
+      <c r="I49" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="7">
+      <c r="B50" s="29">
         <v>46</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G50" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="H50" s="13" t="s">
+      <c r="G50" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H50" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="I50" s="35" t="s">
+      <c r="I50" s="30" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="7">
+      <c r="B51" s="29">
         <v>47</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F51" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="H51" s="13" t="s">
+      <c r="F51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H51" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="I51" s="13" t="s">
+      <c r="I51" s="30" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="7">
+      <c r="B52" s="29">
         <v>48</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F52" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="H52" s="13" t="s">
+      <c r="F52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="I52" s="13" t="s">
+      <c r="I52" s="30" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="10">
+      <c r="B53" s="29">
         <v>49</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F53" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="H53" s="13" t="s">
+      <c r="F53" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H53" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="I53" s="13" t="s">
+      <c r="I53" s="30" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="7">
+      <c r="B54" s="29">
         <v>50</v>
       </c>
-      <c r="C54" s="38" t="s">
+      <c r="C54" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="F54" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="H54" s="12" t="s">
+      <c r="F54" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="I54" s="12" t="s">
+      <c r="I54" s="28" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="7">
+      <c r="B55" s="29">
         <v>51</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="F55" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" s="14" t="s">
+      <c r="F55" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="H55" s="14" t="s">
+      <c r="H55" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="I55" s="14" t="s">
+      <c r="I55" s="31" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="7">
+      <c r="B56" s="29">
         <v>52</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E56" s="15" t="s">
+      <c r="E56" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="F56" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="H56" s="15" t="s">
+      <c r="F56" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H56" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="I56" s="15" t="s">
+      <c r="I56" s="31" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="18">
+      <c r="B57" s="27">
         <v>53</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F57" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="H57" s="13" t="s">
+      <c r="F57" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="I57" s="13" t="s">
+      <c r="I57" s="30" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="7">
+      <c r="B58" s="29">
         <v>54</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F58" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="H58" s="13" t="s">
+      <c r="F58" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="I58" s="13" t="s">
+      <c r="I58" s="30" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="7">
+      <c r="B59" s="29">
         <v>55</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="F59" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H59" s="14" t="s">
+      <c r="F59" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H59" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="I59" s="14" t="s">
+      <c r="I59" s="31" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="7">
+      <c r="B60" s="29">
         <v>56</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F60" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H60" s="14" t="s">
+      <c r="F60" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H60" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="I60" s="14" t="s">
+      <c r="I60" s="31" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="10">
+      <c r="B61" s="29">
         <v>57</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F61" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="H61" s="13" t="s">
+      <c r="F61" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H61" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="I61" s="19" t="s">
+      <c r="I61" s="30" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="7">
+      <c r="B62" s="29">
         <v>58</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="F62" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="G62" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="H62" s="12" t="s">
+      <c r="G62" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H62" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="I62" s="12" t="s">
+      <c r="I62" s="28" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="7">
+      <c r="B63" s="29">
         <v>59</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="F63" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="H63" s="12" t="s">
+      <c r="F63" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H63" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="I63" s="12" t="s">
+      <c r="I63" s="28" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="7">
+      <c r="B64" s="29">
         <v>60</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="E64" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F64" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13" t="s">
+      <c r="F64" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H64" s="7"/>
+      <c r="I64" s="30" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="18">
+      <c r="B65" s="27">
         <v>61</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G65" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="H65" s="13" t="s">
+      <c r="G65" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H65" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="I65" s="13" t="s">
+      <c r="I65" s="30" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="7">
+      <c r="B66" s="29">
         <v>62</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F66" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="H66" s="13" t="s">
+      <c r="F66" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H66" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="I66" s="13" t="s">
+      <c r="I66" s="30" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="7">
+      <c r="B67" s="29">
         <v>63</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="F67" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H67" s="14" t="s">
+      <c r="F67" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H67" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="I67" s="14" t="s">
+      <c r="I67" s="31" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="7">
+      <c r="B68" s="29">
         <v>64</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="E68" s="13" t="s">
+      <c r="E68" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F68" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" s="13" t="s">
+      <c r="F68" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13" t="s">
+      <c r="H68" s="7"/>
+      <c r="I68" s="30" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="10">
+      <c r="B69" s="29">
         <v>65</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="G69" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12" t="s">
+      <c r="G69" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="7">
+      <c r="B70" s="29">
         <v>66</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="E70" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G70" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13" t="s">
+      <c r="G70" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H70" s="7"/>
+      <c r="I70" s="30" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="7">
+      <c r="B71" s="29">
         <v>67</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="F71" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" s="14" t="s">
+      <c r="F71" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="H71" s="14" t="s">
+      <c r="H71" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="I71" s="14" t="s">
+      <c r="I71" s="31" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="7">
+      <c r="B72" s="29">
         <v>68</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="F72" s="12" t="s">
+      <c r="F72" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="G72" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="H72" s="12" t="s">
+      <c r="G72" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H72" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="I72" s="12" t="s">
+      <c r="I72" s="28" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="18">
+      <c r="B73" s="27">
         <v>69</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F73" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13" t="s">
+      <c r="F73" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H73" s="7"/>
+      <c r="I73" s="30" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="7">
+      <c r="B74" s="29">
         <v>70</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="F74" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H74" s="14" t="s">
+      <c r="F74" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H74" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="I74" s="14" t="s">
+      <c r="I74" s="31" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="7">
+      <c r="B75" s="29">
         <v>71</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5" t="s">
+      <c r="C75" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H75" s="7"/>
+      <c r="I75" s="30" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="7">
+      <c r="B76" s="29">
         <v>72</v>
       </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
+      <c r="C76" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H76" s="7"/>
+      <c r="I76" s="30" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="10">
+      <c r="B77" s="29">
         <v>73</v>
       </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
+      <c r="C77" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H77" s="7"/>
+      <c r="I77" s="30" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="7">
+      <c r="B78" s="29">
         <v>74</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
+      <c r="C78" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H78" s="7"/>
+      <c r="I78" s="30" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="7">
+      <c r="B79" s="29">
         <v>75</v>
       </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
+      <c r="C79" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H79" s="7"/>
+      <c r="I79" s="30" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="7">
+      <c r="B80" s="29">
         <v>76</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
+      <c r="C80" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H80" s="7"/>
+      <c r="I80" s="30" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="18">
+      <c r="B81" s="27">
         <v>77</v>
       </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
+      <c r="C81" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H81" s="7"/>
+      <c r="I81" s="30" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="7">
+      <c r="B82" s="29">
         <v>78</v>
       </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
+      <c r="C82" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H82" s="7"/>
+      <c r="I82" s="30" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="7">
+      <c r="B83" s="29">
         <v>79</v>
       </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
+      <c r="C83" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H83" s="7"/>
+      <c r="I83" s="30" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="36">
+        <v>80</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="H84" s="10"/>
+      <c r="I84" s="37" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="23"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="26"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="26"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/wp71/list.xlsx
+++ b/wp71/list.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="527">
   <si>
     <t>nr</t>
   </si>
@@ -1201,13 +1201,421 @@
   </si>
   <si>
     <t>8D4E3945-D4E7-4CDC-8749-88D20B33BB32</t>
+  </si>
+  <si>
+    <t>AccuWeather</t>
+  </si>
+  <si>
+    <t>accuweather.xap</t>
+  </si>
+  <si>
+    <t>2.2.1.0</t>
+  </si>
+  <si>
+    <t>N/A (got it from Google Drive)</t>
+  </si>
+  <si>
+    <t>Google Drive: drive.google.com/drive/folders/1pJ49USDlJQqB0uDq4HOInaZJXJPYZHoH</t>
+  </si>
+  <si>
+    <t>Nokia Creative Studio</t>
+  </si>
+  <si>
+    <t>creativestudio.xap</t>
+  </si>
+  <si>
+    <t>1.3.0.0</t>
+  </si>
+  <si>
+    <t>Evernote</t>
+  </si>
+  <si>
+    <t>evernote.xap</t>
+  </si>
+  <si>
+    <t>2.1.0.0</t>
+  </si>
+  <si>
+    <t>Microsoft Game Studios</t>
+  </si>
+  <si>
+    <t>fruitninja-1.1.0.0.xap</t>
+  </si>
+  <si>
+    <t>Flickr</t>
+  </si>
+  <si>
+    <t>Yahoo! Inc</t>
+  </si>
+  <si>
+    <t>flickr.xap</t>
+  </si>
+  <si>
+    <t>cannot connect to online servers</t>
+  </si>
+  <si>
+    <t>offline functionality works fine</t>
+  </si>
+  <si>
+    <t>photo editor, works fine</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>T-Mobile USA</t>
+  </si>
+  <si>
+    <t>netflix.xap</t>
+  </si>
+  <si>
+    <t>Face Swap</t>
+  </si>
+  <si>
+    <t>Microsoft Research</t>
+  </si>
+  <si>
+    <t>faceswap.xap</t>
+  </si>
+  <si>
+    <t>Face Mask</t>
+  </si>
+  <si>
+    <t>facemask.xap</t>
+  </si>
+  <si>
+    <t>Last.FM</t>
+  </si>
+  <si>
+    <t>Microsoft Corporation</t>
+  </si>
+  <si>
+    <t>lastfm.xap</t>
+  </si>
+  <si>
+    <t>HTC YouTube</t>
+  </si>
+  <si>
+    <t>HTC Corporation</t>
+  </si>
+  <si>
+    <t>htcyoutube.xap</t>
+  </si>
+  <si>
+    <t>2.2.0.0</t>
+  </si>
+  <si>
+    <t>1.0.0.3</t>
+  </si>
+  <si>
+    <t>Clematis Seeds</t>
+  </si>
+  <si>
+    <t>Seragam</t>
+  </si>
+  <si>
+    <t>clematisseeds.xap</t>
+  </si>
+  <si>
+    <t>2.3.0.0</t>
+  </si>
+  <si>
+    <t>Hexic Rush</t>
+  </si>
+  <si>
+    <t>hexicrush.xap</t>
+  </si>
+  <si>
+    <t>HTC Flashlight</t>
+  </si>
+  <si>
+    <t>htcflashlight.xap</t>
+  </si>
+  <si>
+    <t>Hearts</t>
+  </si>
+  <si>
+    <t>Jake Poznanski</t>
+  </si>
+  <si>
+    <t>hearts.xap</t>
+  </si>
+  <si>
+    <t>2.4.0.0</t>
+  </si>
+  <si>
+    <t>just an offline game</t>
+  </si>
+  <si>
+    <t>offline face filter app</t>
+  </si>
+  <si>
+    <t>offline face swap app</t>
+  </si>
+  <si>
+    <t>cannot test, do not have a htc device</t>
+  </si>
+  <si>
+    <t>cannot connect to YouTube</t>
+  </si>
+  <si>
+    <t>cannot connect to Last.fm</t>
+  </si>
+  <si>
+    <t>app logs in, cannot test if content plays (do not have a sub.)</t>
+  </si>
+  <si>
+    <t>just offline hearts</t>
+  </si>
+  <si>
+    <t>Nokia Contacts Share</t>
+  </si>
+  <si>
+    <t>nokiacontactshare.xap</t>
+  </si>
+  <si>
+    <t>Nokia Counters</t>
+  </si>
+  <si>
+    <t>nokiacounters.xap</t>
+  </si>
+  <si>
+    <t>1.5.0.48</t>
+  </si>
+  <si>
+    <t>3.1.0.3206</t>
+  </si>
+  <si>
+    <t>nokiadrive.xap</t>
+  </si>
+  <si>
+    <t>Drumkit XNA</t>
+  </si>
+  <si>
+    <t>Nokia</t>
+  </si>
+  <si>
+    <t>nokiadrumkit.xap</t>
+  </si>
+  <si>
+    <t>Nokia Lumia Highlights</t>
+  </si>
+  <si>
+    <t>nokialumiahighlights.xap</t>
+  </si>
+  <si>
+    <t>Nokia Maps</t>
+  </si>
+  <si>
+    <t>2.5.29357</t>
+  </si>
+  <si>
+    <t>nokiamaps.xap</t>
+  </si>
+  <si>
+    <t>Nokia Music</t>
+  </si>
+  <si>
+    <t>3.6.99.508</t>
+  </si>
+  <si>
+    <t>nokiamusic.xap</t>
+  </si>
+  <si>
+    <t>2.0.0.2148</t>
+  </si>
+  <si>
+    <t>nokianavigation.xap</t>
+  </si>
+  <si>
+    <t>0.9.5.11</t>
+  </si>
+  <si>
+    <t>Nokia Pulse Beta</t>
+  </si>
+  <si>
+    <t>Nokia Corp.</t>
+  </si>
+  <si>
+    <t>nokiapulsebeta.xap</t>
+  </si>
+  <si>
+    <t>Nokia Transit</t>
+  </si>
+  <si>
+    <t>3.3.411.0</t>
+  </si>
+  <si>
+    <t>nokiatransit.xap</t>
+  </si>
+  <si>
+    <t>2.0.0.0</t>
+  </si>
+  <si>
+    <t>TripAdvisor LLC</t>
+  </si>
+  <si>
+    <t>TripAdvisor</t>
+  </si>
+  <si>
+    <t>tripadvisor.xap</t>
+  </si>
+  <si>
+    <t>Nokia TV</t>
+  </si>
+  <si>
+    <t>nokiatv.xap</t>
+  </si>
+  <si>
+    <t>Univision</t>
+  </si>
+  <si>
+    <t>nokiaunivision.xap</t>
+  </si>
+  <si>
+    <t>WRC Live</t>
+  </si>
+  <si>
+    <t>nokiawrclive.xap</t>
+  </si>
+  <si>
+    <t>Nokia Xpress</t>
+  </si>
+  <si>
+    <t>nokiaxpress.xap</t>
+  </si>
+  <si>
+    <t>1.0.12.0</t>
+  </si>
+  <si>
+    <t>Nokia Drive/Navigation</t>
+  </si>
+  <si>
+    <t>shares contacts via sms or email</t>
+  </si>
+  <si>
+    <t>calls, sms, data usage tracking and limits</t>
+  </si>
+  <si>
+    <t>small game to play the drums</t>
+  </si>
+  <si>
+    <t>server connection unavailable</t>
+  </si>
+  <si>
+    <t>cannot get maps</t>
+  </si>
+  <si>
+    <t>used to be a streaming service, only local files now</t>
+  </si>
+  <si>
+    <t>requires a Nokia Account (dead)</t>
+  </si>
+  <si>
+    <t>cannot get maps or transit</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>now.xap</t>
+  </si>
+  <si>
+    <t>2.11.9.1</t>
+  </si>
+  <si>
+    <t>Opera Mini</t>
+  </si>
+  <si>
+    <t>Opera Software</t>
+  </si>
+  <si>
+    <t>operamini.xap</t>
+  </si>
+  <si>
+    <t>1.2 / 5.1</t>
+  </si>
+  <si>
+    <t>PayPal</t>
+  </si>
+  <si>
+    <t>eBay Inc.</t>
+  </si>
+  <si>
+    <t>paypal.xap</t>
+  </si>
+  <si>
+    <t>1.4.0.0</t>
+  </si>
+  <si>
+    <t>Piano 7</t>
+  </si>
+  <si>
+    <t>Better Day Wireless</t>
+  </si>
+  <si>
+    <t>piano7.xap</t>
+  </si>
+  <si>
+    <t>Shazam</t>
+  </si>
+  <si>
+    <t>Shazam Entertainment Ltd</t>
+  </si>
+  <si>
+    <t>shazam.xap</t>
+  </si>
+  <si>
+    <t>Shuffle Party</t>
+  </si>
+  <si>
+    <t>shuffleparty.xap</t>
+  </si>
+  <si>
+    <t>SkyDrive</t>
+  </si>
+  <si>
+    <t>skydrive.xap</t>
+  </si>
+  <si>
+    <t>1.3.0.3</t>
+  </si>
+  <si>
+    <t>skype.xap</t>
+  </si>
+  <si>
+    <t>Skype</t>
+  </si>
+  <si>
+    <t>spotify.xap</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>Spotify Ltd.</t>
+  </si>
+  <si>
+    <t>Telegram Messenger LLP</t>
+  </si>
+  <si>
+    <t>Telegram Messenger Beta</t>
+  </si>
+  <si>
+    <t>telegrambeta.xap</t>
+  </si>
+  <si>
+    <t>1.11.4.0</t>
+  </si>
+  <si>
+    <t>only works with root</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1245,13 +1653,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1273,17 +1674,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1325,7 +1798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1532,17 +2005,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1552,55 +2014,46 @@
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyAlignment="1">
@@ -1609,101 +2062,87 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="7" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="6" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="40% — akcent 1" xfId="6" builtinId="31"/>
-    <cellStyle name="Dane wejściowe" xfId="5" builtinId="20"/>
-    <cellStyle name="Dobry" xfId="2" builtinId="26"/>
+    <cellStyle name="40% — akcent 1" xfId="6" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="Dane wejściowe" xfId="5" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Dobry" xfId="2" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
-    <cellStyle name="Neutralny" xfId="4" builtinId="28"/>
+    <cellStyle name="Neutralny" xfId="4" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Uwaga" xfId="7" builtinId="10"/>
-    <cellStyle name="Zły" xfId="3" builtinId="27"/>
+    <cellStyle name="Zły" xfId="3" builtinId="27" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1716,16 +2155,98 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1738,16 +2259,20 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1760,16 +2285,19 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1782,16 +2310,19 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1804,55 +2335,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1879,7 +2361,16 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1888,12 +2379,27 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
+        </left>
+        <right style="thin">
           <color indexed="64"/>
-        </horizontal>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1910,20 +2416,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B4:I84" headerRowDxfId="1" totalsRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11" dataCellStyle="Normalny">
-  <autoFilter ref="B4:I84"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B4:I127" headerRowDxfId="12" dataDxfId="3" totalsRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" dataCellStyle="Normalny">
+  <autoFilter ref="B4:I127"/>
   <sortState ref="B5:I61">
     <sortCondition ref="B4:B61"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="nr" totalsRowLabel="Suma" dataDxfId="9" dataCellStyle="Normalny"/>
-    <tableColumn id="2" name="title" dataDxfId="8" dataCellStyle="Normalny"/>
-    <tableColumn id="14" name="by" dataDxfId="7"/>
-    <tableColumn id="12" name="file name" dataDxfId="6" dataCellStyle="Normalny"/>
-    <tableColumn id="3" name="version" dataDxfId="5" dataCellStyle="Normalny"/>
-    <tableColumn id="4" name="for" dataDxfId="4" dataCellStyle="Normalny"/>
-    <tableColumn id="11" name="status of the app" totalsRowFunction="count" dataDxfId="3" dataCellStyle="Normalny"/>
-    <tableColumn id="13" name="ms server id" dataDxfId="2" totalsRowDxfId="12" dataCellStyle="Normalny"/>
+    <tableColumn id="1" name="nr" totalsRowLabel="Suma" dataDxfId="2" dataCellStyle="Normalny"/>
+    <tableColumn id="2" name="title" dataDxfId="0" dataCellStyle="Normalny"/>
+    <tableColumn id="14" name="by" dataDxfId="1"/>
+    <tableColumn id="12" name="file name" dataDxfId="8" dataCellStyle="Normalny"/>
+    <tableColumn id="3" name="version" dataDxfId="7" dataCellStyle="Normalny"/>
+    <tableColumn id="4" name="for" dataDxfId="6" dataCellStyle="Normalny"/>
+    <tableColumn id="11" name="status of the app" totalsRowFunction="count" dataDxfId="5" dataCellStyle="Normalny"/>
+    <tableColumn id="13" name="ms server id" dataDxfId="4" dataCellStyle="Normalny"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2226,40 +2732,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N87"/>
+  <dimension ref="B2:S127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" style="18" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="53.85546875" customWidth="1"/>
-    <col min="9" max="9" width="39.28515625" customWidth="1"/>
+    <col min="9" max="9" width="44.7109375" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E3" s="5" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
         <v>181</v>
       </c>
       <c r="H3" t="s">
@@ -2269,2150 +2775,3212 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="27">
+    <row r="5" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="23">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="29">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="23">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="29">
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="23">
         <v>3</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="29">
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="23">
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="29">
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="23">
         <v>5</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H9" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="17"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="29">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="23">
         <v>6</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H10" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="29">
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="23">
         <v>7</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="29">
+    <row r="12" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="23">
         <v>8</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="G12" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H12" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="35" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="29">
+      <c r="K12" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+    </row>
+    <row r="13" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="23">
         <v>9</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H13" s="8" t="s">
+      <c r="G13" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H13" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="29">
+    <row r="14" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="23">
         <v>10</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="G14" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H14" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="29">
+    <row r="15" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="23">
         <v>11</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H15" s="8" t="s">
+      <c r="G15" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H15" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="29">
+    <row r="16" spans="2:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="23">
         <v>12</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H16" s="8" t="s">
+      <c r="G16" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H16" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="35" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="29">
+    <row r="17" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="23">
         <v>13</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H17" s="8" t="s">
+      <c r="G17" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H17" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="29">
+    <row r="18" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="23">
         <v>14</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="H18" s="6" t="s">
+      <c r="G18" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H18" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="I18" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="29">
+    <row r="19" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="23">
         <v>15</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="H19" s="9" t="s">
+      <c r="G19" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H19" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="40" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="29">
+    <row r="20" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="23">
         <v>16</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="H20" s="9" t="s">
+      <c r="G20" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H20" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="40" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="29">
+    <row r="21" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="23">
         <v>17</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H21" s="8" t="s">
+      <c r="G21" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H21" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="35" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="29">
+    <row r="22" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="23">
         <v>18</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="H22" s="6" t="s">
+      <c r="G22" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H22" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="I22" s="28" t="s">
+      <c r="I22" s="27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="29">
+    <row r="23" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="23">
         <v>19</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="29">
+    <row r="24" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="23">
         <v>20</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H24" s="8" t="s">
+      <c r="G24" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H24" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="I24" s="35" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="29">
+    <row r="25" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="23">
         <v>21</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H25" s="8" t="s">
+      <c r="G25" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H25" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="31" t="s">
+      <c r="I25" s="35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="29">
+    <row r="26" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="23">
         <v>22</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H26" s="8" t="s">
+      <c r="G26" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H26" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="I26" s="31" t="s">
+      <c r="I26" s="35" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="29">
+    <row r="27" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="23">
         <v>23</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H27" s="8" t="s">
+      <c r="G27" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H27" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="I27" s="31" t="s">
+      <c r="I27" s="35" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="29">
+    <row r="28" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="23">
         <v>24</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H28" s="8" t="s">
+      <c r="G28" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H28" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="I28" s="31" t="s">
+      <c r="I28" s="35" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="29">
+    <row r="29" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B29" s="23">
         <v>25</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H29" s="8" t="s">
+      <c r="G29" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H29" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="I29" s="31" t="s">
+      <c r="I29" s="35" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="29">
+    <row r="30" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="23">
         <v>26</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="I30" s="30" t="s">
+      <c r="I30" s="31" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="29">
+    <row r="31" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B31" s="23">
         <v>27</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H31" s="7" t="s">
+      <c r="G31" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H31" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="I31" s="30" t="s">
+      <c r="I31" s="31" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="29">
+    <row r="32" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B32" s="23">
         <v>28</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H32" s="8" t="s">
+      <c r="G32" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H32" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="I32" s="31" t="s">
+      <c r="I32" s="35" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="29">
+    <row r="33" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B33" s="23">
         <v>29</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H33" s="8" t="s">
+      <c r="G33" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H33" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="I33" s="31" t="s">
+      <c r="I33" s="35" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="29">
+    <row r="34" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B34" s="23">
         <v>30</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H34" s="8" t="s">
+      <c r="G34" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H34" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="I34" s="31" t="s">
+      <c r="I34" s="35" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="29">
+    <row r="35" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B35" s="23">
         <v>31</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="31" t="s">
+      <c r="I35" s="35" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="29">
+    <row r="36" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B36" s="23">
         <v>32</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="H36" s="6" t="s">
+      <c r="G36" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H36" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="I36" s="28" t="s">
+      <c r="I36" s="27" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="29">
+    <row r="37" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B37" s="23">
         <v>33</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H37" s="8" t="s">
+      <c r="G37" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H37" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="I37" s="31" t="s">
+      <c r="I37" s="35" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="29">
+    <row r="38" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B38" s="23">
         <v>34</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="G38" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="H38" s="6" t="s">
+      <c r="G38" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H38" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="I38" s="28" t="s">
+      <c r="I38" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="29">
+    <row r="39" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B39" s="23">
         <v>35</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="I39" s="33" t="s">
+      <c r="I39" s="40" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="29">
+    <row r="40" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B40" s="23">
         <v>36</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="H40" s="9" t="s">
+      <c r="G40" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H40" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="I40" s="33" t="s">
+      <c r="I40" s="40" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="27">
+    <row r="41" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B41" s="23">
         <v>37</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="H41" s="6" t="s">
+      <c r="G41" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H41" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="I41" s="28" t="s">
+      <c r="I41" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="29">
+    <row r="42" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B42" s="23">
         <v>38</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="I42" s="28" t="s">
+      <c r="I42" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="29">
+    <row r="43" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B43" s="23">
         <v>39</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="H43" s="6" t="s">
+      <c r="G43" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H43" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="I43" s="28" t="s">
+      <c r="I43" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="29">
+    <row r="44" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B44" s="23">
         <v>40</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H44" s="7" t="s">
+      <c r="G44" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H44" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="I44" s="30" t="s">
+      <c r="I44" s="31" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="29">
+    <row r="45" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B45" s="23">
         <v>41</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F45" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="G45" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="H45" s="34" t="s">
+      <c r="G45" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="H45" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="I45" s="35" t="s">
+      <c r="I45" s="44" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="29">
+    <row r="46" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B46" s="23">
         <v>42</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="H46" s="9" t="s">
+      <c r="G46" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H46" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="I46" s="33" t="s">
+      <c r="I46" s="40" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="29">
+    <row r="47" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B47" s="23">
         <v>43</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="H47" s="9" t="s">
+      <c r="G47" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H47" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="I47" s="33" t="s">
+      <c r="I47" s="40" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="29">
+    <row r="48" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B48" s="23">
         <v>44</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="H48" s="6" t="s">
+      <c r="G48" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H48" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="I48" s="28" t="s">
+      <c r="I48" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="27">
+    <row r="49" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B49" s="23">
         <v>45</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="H49" s="6" t="s">
+      <c r="G49" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H49" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="I49" s="28" t="s">
+      <c r="I49" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="29">
+    <row r="50" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B50" s="23">
         <v>46</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G50" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H50" s="7" t="s">
+      <c r="G50" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H50" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="I50" s="30" t="s">
+      <c r="I50" s="31" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="29">
+    <row r="51" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B51" s="23">
         <v>47</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G51" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H51" s="7" t="s">
+      <c r="G51" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H51" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="I51" s="30" t="s">
+      <c r="I51" s="31" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="29">
+    <row r="52" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B52" s="23">
         <v>48</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G52" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H52" s="7" t="s">
+      <c r="G52" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H52" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="I52" s="30" t="s">
+      <c r="I52" s="31" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="29">
+    <row r="53" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B53" s="23">
         <v>49</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H53" s="7" t="s">
+      <c r="G53" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H53" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="I53" s="30" t="s">
+      <c r="I53" s="31" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="29">
+    <row r="54" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B54" s="23">
         <v>50</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="H54" s="6" t="s">
+      <c r="G54" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H54" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="I54" s="28" t="s">
+      <c r="I54" s="27" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="29">
+    <row r="55" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B55" s="23">
         <v>51</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="I55" s="31" t="s">
+      <c r="I55" s="35" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="29">
+    <row r="56" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B56" s="23">
         <v>52</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G56" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H56" s="8" t="s">
+      <c r="G56" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H56" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="I56" s="31" t="s">
+      <c r="I56" s="35" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="27">
+    <row r="57" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B57" s="23">
         <v>53</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G57" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H57" s="7" t="s">
+      <c r="G57" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H57" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="I57" s="30" t="s">
+      <c r="I57" s="31" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="29">
+    <row r="58" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B58" s="23">
         <v>54</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H58" s="7" t="s">
+      <c r="G58" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H58" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="I58" s="30" t="s">
+      <c r="I58" s="31" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="29">
+    <row r="59" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B59" s="23">
         <v>55</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G59" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H59" s="8" t="s">
+      <c r="G59" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H59" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="I59" s="31" t="s">
+      <c r="I59" s="35" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="29">
+    <row r="60" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B60" s="23">
         <v>56</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G60" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H60" s="8" t="s">
+      <c r="G60" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H60" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="I60" s="31" t="s">
+      <c r="I60" s="35" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="29">
+    <row r="61" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B61" s="23">
         <v>57</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H61" s="7" t="s">
+      <c r="G61" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H61" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="I61" s="30" t="s">
+      <c r="I61" s="31" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="29">
+    <row r="62" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B62" s="23">
         <v>58</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="G62" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="H62" s="6" t="s">
+      <c r="G62" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H62" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="I62" s="28" t="s">
+      <c r="I62" s="27" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="29">
+    <row r="63" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B63" s="23">
         <v>59</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G63" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="H63" s="6" t="s">
+      <c r="G63" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H63" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="I63" s="28" t="s">
+      <c r="I63" s="27" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="29">
+    <row r="64" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B64" s="23">
         <v>60</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G64" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H64" s="7"/>
-      <c r="I64" s="30" t="s">
+      <c r="G64" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H64" s="29"/>
+      <c r="I64" s="31" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="27">
+    <row r="65" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B65" s="23">
         <v>61</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G65" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H65" s="7" t="s">
+      <c r="G65" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H65" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="I65" s="30" t="s">
+      <c r="I65" s="31" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="29">
+    <row r="66" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B66" s="23">
         <v>62</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G66" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H66" s="7" t="s">
+      <c r="G66" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H66" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="I66" s="30" t="s">
+      <c r="I66" s="31" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="29">
+    <row r="67" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B67" s="23">
         <v>63</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G67" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H67" s="8" t="s">
+      <c r="G67" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H67" s="33" t="s">
         <v>350</v>
       </c>
-      <c r="I67" s="31" t="s">
+      <c r="I67" s="35" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="29">
+    <row r="68" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B68" s="23">
         <v>64</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G68" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="H68" s="7"/>
-      <c r="I68" s="30" t="s">
+      <c r="H68" s="29"/>
+      <c r="I68" s="31" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="29">
+    <row r="69" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B69" s="23">
         <v>65</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="F69" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="28" t="s">
+      <c r="G69" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H69" s="25"/>
+      <c r="I69" s="27" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="29">
+    <row r="70" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B70" s="23">
         <v>66</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="G70" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H70" s="7"/>
-      <c r="I70" s="30" t="s">
+      <c r="G70" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H70" s="29"/>
+      <c r="I70" s="31" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="29">
+    <row r="71" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B71" s="23">
         <v>67</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="H71" s="8" t="s">
+      <c r="H71" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="I71" s="31" t="s">
+      <c r="I71" s="35" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="29">
+    <row r="72" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B72" s="23">
         <v>68</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F72" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="G72" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="H72" s="6" t="s">
+      <c r="G72" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H72" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="I72" s="28" t="s">
+      <c r="I72" s="27" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="27">
+    <row r="73" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B73" s="23">
         <v>69</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G73" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H73" s="7"/>
-      <c r="I73" s="30" t="s">
+      <c r="G73" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H73" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I73" s="31" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="29">
+    <row r="74" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B74" s="23">
         <v>70</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G74" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H74" s="8" t="s">
+      <c r="G74" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="H74" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="I74" s="31" t="s">
+      <c r="I74" s="35" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="29">
+    <row r="75" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B75" s="23">
         <v>71</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G75" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H75" s="7"/>
-      <c r="I75" s="30" t="s">
+      <c r="G75" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I75" s="31" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="29">
+    <row r="76" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B76" s="23">
         <v>72</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G76" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H76" s="7"/>
-      <c r="I76" s="30" t="s">
+      <c r="G76" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H76" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I76" s="31" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="29">
+    <row r="77" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B77" s="23">
         <v>73</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="G77" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="H77" s="7"/>
-      <c r="I77" s="30" t="s">
+      <c r="H77" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I77" s="31" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="29">
+    <row r="78" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B78" s="23">
         <v>74</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G78" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H78" s="7"/>
-      <c r="I78" s="30" t="s">
+      <c r="G78" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H78" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I78" s="31" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="29">
+    <row r="79" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B79" s="23">
         <v>75</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G79" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="H79" s="7"/>
-      <c r="I79" s="30" t="s">
+      <c r="H79" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I79" s="31" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="29">
+    <row r="80" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B80" s="23">
         <v>76</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G80" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H80" s="7"/>
-      <c r="I80" s="30" t="s">
+      <c r="G80" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I80" s="31" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="27">
+    <row r="81" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B81" s="23">
         <v>77</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G81" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H81" s="7"/>
-      <c r="I81" s="30" t="s">
+      <c r="G81" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I81" s="31" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="29">
+    <row r="82" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B82" s="23">
         <v>78</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G82" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H82" s="7"/>
-      <c r="I82" s="30" t="s">
+      <c r="G82" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I82" s="31" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="29">
+    <row r="83" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B83" s="23">
         <v>79</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G83" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H83" s="7"/>
-      <c r="I83" s="30" t="s">
+      <c r="G83" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H83" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I83" s="31" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="36">
+    <row r="84" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B84" s="23">
         <v>80</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="47" t="s">
         <v>386</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E84" s="47" t="s">
         <v>387</v>
       </c>
-      <c r="F84" s="10" t="s">
+      <c r="F84" s="47" t="s">
         <v>388</v>
       </c>
-      <c r="G84" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="H84" s="10"/>
-      <c r="I84" s="37" t="s">
+      <c r="G84" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="H84" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I84" s="49" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="23"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="26"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="26"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
+    <row r="85" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B85" s="23">
+        <v>81</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="G85" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H85" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="I85" s="27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B86" s="23">
+        <v>82</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D86" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E86" s="38" t="s">
+        <v>397</v>
+      </c>
+      <c r="F86" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="G86" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H86" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="I86" s="40" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B87" s="23">
+        <v>83</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="F87" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="G87" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H87" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="I87" s="27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B88" s="23">
+        <v>84</v>
+      </c>
+      <c r="C88" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="F88" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="G88" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H88" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="I88" s="40" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B89" s="23">
+        <v>85</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="D89" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="E89" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F89" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="G89" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H89" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="I89" s="27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B90" s="23">
+        <v>86</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="D90" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="E90" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="F90" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="G90" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="H90" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="I90" s="40" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B91" s="23">
+        <v>87</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="D91" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="E91" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="F91" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H91" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="I91" s="40" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B92" s="23">
+        <v>88</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="D92" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="E92" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="F92" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H92" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="I92" s="40" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B93" s="23">
+        <v>89</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="F93" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G93" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="H93" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="I93" s="27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B94" s="23">
+        <v>90</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="F94" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="G94" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="H94" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="I94" s="27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B95" s="23">
+        <v>91</v>
+      </c>
+      <c r="C95" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="D95" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="E95" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="F95" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="G95" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H95" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="I95" s="40" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B96" s="23">
+        <v>92</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="D96" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="E96" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="F96" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="G96" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="H96" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="I96" s="40" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B97" s="23">
+        <v>93</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="D97" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="E97" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="F97" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="H97" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="I97" s="31" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B98" s="23">
+        <v>94</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="D98" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="E98" s="38" t="s">
+        <v>436</v>
+      </c>
+      <c r="F98" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="G98" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="H98" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="I98" s="40" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B99" s="23">
+        <v>95</v>
+      </c>
+      <c r="C99" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="D99" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E99" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="F99" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="G99" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H99" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="I99" s="40" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B100" s="23">
+        <v>96</v>
+      </c>
+      <c r="C100" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="D100" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E100" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="F100" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="G100" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H100" s="38" t="s">
+        <v>488</v>
+      </c>
+      <c r="I100" s="40" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B101" s="23">
+        <v>97</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="G101" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B102" s="23">
+        <v>98</v>
+      </c>
+      <c r="C102" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="D102" s="38" t="s">
+        <v>454</v>
+      </c>
+      <c r="E102" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="F102" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="G102" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H102" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="I102" s="40" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B103" s="23">
+        <v>99</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="D103" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E103" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="F103" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="G103" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H103" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="I103" s="27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B104" s="23">
+        <v>100</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G104" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H104" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="I104" s="27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B105" s="23">
+        <v>101</v>
+      </c>
+      <c r="C105" s="50" t="s">
+        <v>461</v>
+      </c>
+      <c r="D105" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E105" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="F105" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="G105" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H105" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="I105" s="40" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B106" s="23">
+        <v>102</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E106" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="F106" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="G106" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H106" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="I106" s="27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B107" s="23">
+        <v>103</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="D107" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="E107" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="F107" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="G107" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H107" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="I107" s="27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B108" s="23">
+        <v>104</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E108" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="F108" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="G108" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H108" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="I108" s="27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B109" s="23">
+        <v>105</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="D109" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="E109" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="F109" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="G109" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H109" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="I109" s="27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B110" s="23">
+        <v>106</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E110" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="F110" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G110" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H110" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="I110" s="27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B111" s="23">
+        <v>107</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="D111" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E111" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="F111" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H111" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="I111" s="27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B112" s="23">
+        <v>108</v>
+      </c>
+      <c r="C112" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E112" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="F112" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G112" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H112" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="I112" s="27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B113" s="23">
+        <v>109</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E113" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="F113" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="G113" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H113" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="I113" s="27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B114" s="23">
+        <v>110</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H114" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B115" s="23">
+        <v>111</v>
+      </c>
+      <c r="C115" s="66" t="s">
+        <v>498</v>
+      </c>
+      <c r="D115" s="62" t="s">
+        <v>499</v>
+      </c>
+      <c r="E115" s="62" t="s">
+        <v>500</v>
+      </c>
+      <c r="F115" s="62" t="s">
+        <v>501</v>
+      </c>
+      <c r="G115" s="63" t="s">
+        <v>325</v>
+      </c>
+      <c r="H115" s="62" t="s">
+        <v>526</v>
+      </c>
+      <c r="I115" s="64" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B116" s="23">
+        <v>112</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="G116" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H116" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B117" s="23">
+        <v>113</v>
+      </c>
+      <c r="C117" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="D117" s="38" t="s">
+        <v>507</v>
+      </c>
+      <c r="E117" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="F117" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G117" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="H117" s="38"/>
+      <c r="I117" s="61" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B118" s="23">
+        <v>114</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H118" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B119" s="23">
+        <v>115</v>
+      </c>
+      <c r="C119" s="65" t="s">
+        <v>512</v>
+      </c>
+      <c r="D119" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="E119" s="38" t="s">
+        <v>513</v>
+      </c>
+      <c r="F119" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="G119" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="H119" s="38"/>
+      <c r="I119" s="61" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B120" s="23">
+        <v>116</v>
+      </c>
+      <c r="C120" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B121" s="23">
+        <v>117</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G121" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B122" s="23">
+        <v>118</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G122" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B123" s="23">
+        <v>119</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="G123" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B124" s="23">
+        <v>120</v>
+      </c>
+      <c r="C124" s="51"/>
+      <c r="D124" s="52"/>
+      <c r="E124" s="53"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="54"/>
+      <c r="H124" s="53"/>
+      <c r="I124" s="55"/>
+    </row>
+    <row r="125" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B125" s="23">
+        <v>121</v>
+      </c>
+      <c r="C125" s="51"/>
+      <c r="D125" s="52"/>
+      <c r="E125" s="53"/>
+      <c r="F125" s="53"/>
+      <c r="G125" s="54"/>
+      <c r="H125" s="53"/>
+      <c r="I125" s="55"/>
+    </row>
+    <row r="126" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B126" s="23">
+        <v>122</v>
+      </c>
+      <c r="C126" s="51"/>
+      <c r="D126" s="52"/>
+      <c r="E126" s="53"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="54"/>
+      <c r="H126" s="53"/>
+      <c r="I126" s="55"/>
+    </row>
+    <row r="127" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B127" s="23">
+        <v>123</v>
+      </c>
+      <c r="C127" s="56"/>
+      <c r="D127" s="57"/>
+      <c r="E127" s="58"/>
+      <c r="F127" s="58"/>
+      <c r="G127" s="59"/>
+      <c r="H127" s="58"/>
+      <c r="I127" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="K12:S12"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="K9:N9"/>
     <mergeCell ref="B2:I2"/>
